--- a/data/trans_orig/P23_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P23_R-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>374599</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>342467</v>
+        <v>344766</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>405660</v>
+        <v>405966</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3634484846061464</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3322724956567544</v>
+        <v>0.334503129042415</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3935839809477411</v>
+        <v>0.3938812667473319</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>172</v>
@@ -764,19 +764,19 @@
         <v>176541</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>152050</v>
+        <v>153495</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>203911</v>
+        <v>201958</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1342402566420912</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1156171488732905</v>
+        <v>0.116716299957448</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.155052061988201</v>
+        <v>0.1535668947574857</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>538</v>
@@ -785,19 +785,19 @@
         <v>551140</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>514042</v>
+        <v>507942</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>592004</v>
+        <v>592617</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2349483946729582</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2191336885447642</v>
+        <v>0.2165330136942425</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.252368321203395</v>
+        <v>0.2526297736117041</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>656082</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>625021</v>
+        <v>624715</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>688214</v>
+        <v>685915</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6365515153938537</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6064160190522588</v>
+        <v>0.606118733252668</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6677275043432456</v>
+        <v>0.665496870957585</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1119</v>
@@ -835,19 +835,19 @@
         <v>1138572</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1111202</v>
+        <v>1113155</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1163063</v>
+        <v>1161618</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8657597433579088</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8449479380117991</v>
+        <v>0.8464331052425144</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8843828511267096</v>
+        <v>0.8832837000425521</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1790</v>
@@ -856,19 +856,19 @@
         <v>1794653</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1753789</v>
+        <v>1753176</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1831751</v>
+        <v>1837851</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7650516053270418</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7476316787966049</v>
+        <v>0.747370226388296</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7808663114552358</v>
+        <v>0.7834669863057575</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>817807</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>776784</v>
+        <v>778510</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>863177</v>
+        <v>861228</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4829339367007937</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4587092268102449</v>
+        <v>0.4597281399246272</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5097264436091524</v>
+        <v>0.5085753946827399</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>540</v>
@@ -981,19 +981,19 @@
         <v>548055</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>509529</v>
+        <v>509245</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>585262</v>
+        <v>588390</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3451941786663402</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3209283806678322</v>
+        <v>0.3207490904471221</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3686290149565539</v>
+        <v>0.3705990624474927</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1338</v>
@@ -1002,19 +1002,19 @@
         <v>1365862</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1311151</v>
+        <v>1311613</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1421116</v>
+        <v>1421584</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4162835264126959</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3996087356417563</v>
+        <v>0.3997496229752329</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.433123525408923</v>
+        <v>0.4332663025836487</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>875606</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>830236</v>
+        <v>832185</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>916629</v>
+        <v>914903</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5170660632992063</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4902735563908475</v>
+        <v>0.4914246053172601</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5412907731897552</v>
+        <v>0.5402718600753728</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1014</v>
@@ -1052,19 +1052,19 @@
         <v>1039618</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1002411</v>
+        <v>999283</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1078144</v>
+        <v>1078428</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6548058213336598</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6313709850434462</v>
+        <v>0.6294009375525074</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6790716193321678</v>
+        <v>0.679250909552878</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1865</v>
@@ -1073,19 +1073,19 @@
         <v>1915224</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1859970</v>
+        <v>1859502</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1969935</v>
+        <v>1969473</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5837164735873041</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.566876474591077</v>
+        <v>0.5667336974163513</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6003912643582437</v>
+        <v>0.6002503770247671</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>192876</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>171421</v>
+        <v>171346</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>218569</v>
+        <v>215770</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3497874722180468</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3108781809487007</v>
+        <v>0.3107433267868888</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3963833566239001</v>
+        <v>0.391307553967616</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>133</v>
@@ -1198,19 +1198,19 @@
         <v>138734</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>120002</v>
+        <v>119037</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>160657</v>
+        <v>158070</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2912052400900622</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2518860319657983</v>
+        <v>0.2498609327679494</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3372231425948609</v>
+        <v>0.3317925682004406</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>318</v>
@@ -1219,19 +1219,19 @@
         <v>331609</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>302806</v>
+        <v>299808</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>362610</v>
+        <v>361383</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3226336235866052</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2946096024957473</v>
+        <v>0.2916933864173176</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3527948893836095</v>
+        <v>0.3516011409370794</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>358532</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>332839</v>
+        <v>335638</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>379987</v>
+        <v>380062</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6502125277819532</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6036166433760998</v>
+        <v>0.6086924460323841</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6891218190512992</v>
+        <v>0.6892566732131115</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>319</v>
@@ -1269,19 +1269,19 @@
         <v>337678</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>315755</v>
+        <v>318342</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>356410</v>
+        <v>357375</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7087947599099378</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6627768574051393</v>
+        <v>0.66820743179956</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7481139680342019</v>
+        <v>0.7501390672320507</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>661</v>
@@ -1290,19 +1290,19 @@
         <v>696211</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>665210</v>
+        <v>666437</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>725014</v>
+        <v>728012</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6773663764133948</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6472051106163905</v>
+        <v>0.6483988590629203</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7053903975042527</v>
+        <v>0.708306613582682</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>1385281</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1325228</v>
+        <v>1330127</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1441345</v>
+        <v>1438554</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4229219431522778</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4045878954716592</v>
+        <v>0.4060834222805361</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.440038013342917</v>
+        <v>0.4391859405449984</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>845</v>
@@ -1415,19 +1415,19 @@
         <v>863330</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>812443</v>
+        <v>811508</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>912082</v>
+        <v>918012</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2554837841463889</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2404247837439934</v>
+        <v>0.2401481971050369</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.269910911952388</v>
+        <v>0.2716658587610183</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2194</v>
@@ -1436,19 +1436,19 @@
         <v>2248611</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2168802</v>
+        <v>2175533</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2334437</v>
+        <v>2329788</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3378983182442462</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3259054693271328</v>
+        <v>0.3269168435941037</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3507953464992103</v>
+        <v>0.3500966841717661</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>1890220</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1834156</v>
+        <v>1836947</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1950273</v>
+        <v>1945374</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5770780568477222</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.559961986657083</v>
+        <v>0.5608140594550016</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5954121045283408</v>
+        <v>0.5939165777194639</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2452</v>
@@ -1486,19 +1486,19 @@
         <v>2515867</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2467115</v>
+        <v>2461185</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2566754</v>
+        <v>2567689</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7445162158536111</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7300890880476121</v>
+        <v>0.7283341412389818</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7595752162560068</v>
+        <v>0.7598518028949631</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4316</v>
@@ -1507,19 +1507,19 @@
         <v>4406087</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4320261</v>
+        <v>4324910</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4485896</v>
+        <v>4479165</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6621016817557539</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.64920465350079</v>
+        <v>0.649903315828234</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6740945306728673</v>
+        <v>0.6730831564058967</v>
       </c>
     </row>
     <row r="15">
@@ -1850,19 +1850,19 @@
         <v>335005</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>306650</v>
+        <v>302884</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>367788</v>
+        <v>366611</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.343721067128352</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3146275269013264</v>
+        <v>0.3107643304988448</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3773571005540853</v>
+        <v>0.3761488293698579</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>186</v>
@@ -1871,19 +1871,19 @@
         <v>200037</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>174538</v>
+        <v>174876</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>224560</v>
+        <v>227331</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1495271683491217</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1304668778904562</v>
+        <v>0.1307194457105242</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1678583594042795</v>
+        <v>0.1699294663210751</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>504</v>
@@ -1892,19 +1892,19 @@
         <v>535042</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>491696</v>
+        <v>492327</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>576989</v>
+        <v>578330</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2313756757249517</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2126309280375748</v>
+        <v>0.2129035164915332</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.249515078438391</v>
+        <v>0.2500951814996518</v>
       </c>
     </row>
     <row r="5">
@@ -1921,19 +1921,19 @@
         <v>639638</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>606855</v>
+        <v>608032</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>667993</v>
+        <v>671759</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.656278932871648</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6226428994459151</v>
+        <v>0.6238511706301422</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6853724730986738</v>
+        <v>0.6892356695011552</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1061</v>
@@ -1942,19 +1942,19 @@
         <v>1137760</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1113237</v>
+        <v>1110466</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1163259</v>
+        <v>1162921</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8504728316508783</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8321416405957205</v>
+        <v>0.8300705336789249</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8695331221095437</v>
+        <v>0.8692805542894758</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1651</v>
@@ -1963,19 +1963,19 @@
         <v>1777398</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1735451</v>
+        <v>1734110</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1820744</v>
+        <v>1820113</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7686243242750483</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7504849215616086</v>
+        <v>0.7499048185003482</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7873690719624248</v>
+        <v>0.7870964835084668</v>
       </c>
     </row>
     <row r="6">
@@ -2067,19 +2067,19 @@
         <v>854986</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>808073</v>
+        <v>812344</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>900164</v>
+        <v>902763</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4355664465567013</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4116671353569911</v>
+        <v>0.4138430262507289</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4585821692797387</v>
+        <v>0.4599065002515096</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>585</v>
@@ -2088,19 +2088,19 @@
         <v>636811</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>595442</v>
+        <v>597235</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>678042</v>
+        <v>680842</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3626857146742418</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.339124419390986</v>
+        <v>0.3401457665069071</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3861681048341894</v>
+        <v>0.387762580361718</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1387</v>
@@ -2109,19 +2109,19 @@
         <v>1491796</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1428972</v>
+        <v>1432273</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1552076</v>
+        <v>1553846</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4011555431685012</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3842616297969241</v>
+        <v>0.3851493288037371</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.417365226833242</v>
+        <v>0.4178410929505524</v>
       </c>
     </row>
     <row r="8">
@@ -2138,19 +2138,19 @@
         <v>1107942</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1062764</v>
+        <v>1060165</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1154855</v>
+        <v>1150584</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5644335534432987</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5414178307202612</v>
+        <v>0.5400934997484904</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5883328646430088</v>
+        <v>0.5861569737492709</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1048</v>
@@ -2159,19 +2159,19 @@
         <v>1119010</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1077779</v>
+        <v>1074979</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1160379</v>
+        <v>1158586</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6373142853257582</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6138318951658104</v>
+        <v>0.6122374196382826</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6608755806090139</v>
+        <v>0.6598542334930931</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2101</v>
@@ -2180,19 +2180,19 @@
         <v>2226952</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2166672</v>
+        <v>2164902</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2289776</v>
+        <v>2286475</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5988444568314988</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.582634773166758</v>
+        <v>0.5821589070494475</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6157383702030759</v>
+        <v>0.6148506711962628</v>
       </c>
     </row>
     <row r="9">
@@ -2284,19 +2284,19 @@
         <v>161436</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>138856</v>
+        <v>137055</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>184326</v>
+        <v>186407</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3354991745636723</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.288573650271652</v>
+        <v>0.284830034326397</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.383070986985568</v>
+        <v>0.3873951388064198</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>127</v>
@@ -2305,19 +2305,19 @@
         <v>139422</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>118136</v>
+        <v>119623</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>160528</v>
+        <v>161669</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3039958848920347</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2575847102129435</v>
+        <v>0.2608269297861412</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3500161391580057</v>
+        <v>0.3525042056343883</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>273</v>
@@ -2326,19 +2326,19 @@
         <v>300858</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>270683</v>
+        <v>272314</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>331271</v>
+        <v>332865</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3201254828781999</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2880175541397539</v>
+        <v>0.2897533886864877</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3524859477108734</v>
+        <v>0.3541821932117037</v>
       </c>
     </row>
     <row r="11">
@@ -2355,19 +2355,19 @@
         <v>319745</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>296855</v>
+        <v>294774</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>342325</v>
+        <v>344126</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6645008254363276</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6169290130144321</v>
+        <v>0.6126048611935807</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7114263497283482</v>
+        <v>0.715169965673603</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>285</v>
@@ -2376,19 +2376,19 @@
         <v>319209</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>298103</v>
+        <v>296962</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>340495</v>
+        <v>339008</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6960041151079653</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6499838608419944</v>
+        <v>0.6474957943656117</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7424152897870566</v>
+        <v>0.7391730702138588</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>577</v>
@@ -2397,19 +2397,19 @@
         <v>638955</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>608542</v>
+        <v>606948</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>669130</v>
+        <v>667499</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6798745171218</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.647514052289127</v>
+        <v>0.645817806788296</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7119824458602462</v>
+        <v>0.7102466113135117</v>
       </c>
     </row>
     <row r="12">
@@ -2501,19 +2501,19 @@
         <v>1351427</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1294048</v>
+        <v>1292417</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1405131</v>
+        <v>1409485</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3952982553129798</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3785147325817723</v>
+        <v>0.3780376995817583</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4110071167012907</v>
+        <v>0.4122805192429763</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>898</v>
@@ -2522,19 +2522,19 @@
         <v>976270</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>921102</v>
+        <v>923057</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1028378</v>
+        <v>1036790</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2748315669311453</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2593010949818823</v>
+        <v>0.2598514700749103</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2895006044198621</v>
+        <v>0.2918687684120099</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2164</v>
@@ -2543,19 +2543,19 @@
         <v>2327697</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2252219</v>
+        <v>2237866</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2407125</v>
+        <v>2407171</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3339114308247877</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3230840789063664</v>
+        <v>0.3210250559604064</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3453055926899311</v>
+        <v>0.3453121012162383</v>
       </c>
     </row>
     <row r="14">
@@ -2572,19 +2572,19 @@
         <v>2067325</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2013621</v>
+        <v>2009267</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2124704</v>
+        <v>2126335</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6047017446870202</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5889928832987092</v>
+        <v>0.5877194807570237</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6214852674182274</v>
+        <v>0.6219623004182416</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2394</v>
@@ -2593,19 +2593,19 @@
         <v>2575978</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2523870</v>
+        <v>2515458</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2631146</v>
+        <v>2629191</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7251684330688547</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7104993955801379</v>
+        <v>0.7081312315879895</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7406989050181176</v>
+        <v>0.7401485299250896</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4329</v>
@@ -2614,19 +2614,19 @@
         <v>4643303</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4563875</v>
+        <v>4563829</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4718781</v>
+        <v>4733134</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6660885691752122</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6546944073100688</v>
+        <v>0.6546878987837618</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6769159210936335</v>
+        <v>0.6789749440395936</v>
       </c>
     </row>
     <row r="15">
@@ -2957,19 +2957,19 @@
         <v>225165</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>198366</v>
+        <v>201560</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>251161</v>
+        <v>254199</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2988328972490966</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2632654661440497</v>
+        <v>0.2675045658480551</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3333336034198301</v>
+        <v>0.3373652822004595</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>132</v>
@@ -2978,19 +2978,19 @@
         <v>136215</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>117546</v>
+        <v>117122</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>160910</v>
+        <v>160561</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1372770793630216</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1184623380663552</v>
+        <v>0.1180346977617691</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.162163865432056</v>
+        <v>0.1618122596304441</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>349</v>
@@ -2999,19 +2999,19 @@
         <v>361381</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>328466</v>
+        <v>328778</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>393918</v>
+        <v>395006</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2070061777745286</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1881519859761012</v>
+        <v>0.1883306300214639</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2256443426869069</v>
+        <v>0.2262677580712395</v>
       </c>
     </row>
     <row r="5">
@@ -3028,19 +3028,19 @@
         <v>528317</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>502321</v>
+        <v>499283</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>555116</v>
+        <v>551922</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7011671027509034</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.66666639658017</v>
+        <v>0.6626347177995405</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7367345338559507</v>
+        <v>0.732495434151945</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>758</v>
@@ -3049,19 +3049,19 @@
         <v>856051</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>831356</v>
+        <v>831705</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>874720</v>
+        <v>875144</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8627229206369784</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8378361345679439</v>
+        <v>0.8381877403695557</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8815376619336447</v>
+        <v>0.8819653022382309</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1302</v>
@@ -3070,19 +3070,19 @@
         <v>1384367</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1351830</v>
+        <v>1350742</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1417282</v>
+        <v>1416970</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7929938222254713</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7743556573130934</v>
+        <v>0.7737322419287609</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8118480140238992</v>
+        <v>0.8116693699785364</v>
       </c>
     </row>
     <row r="6">
@@ -3174,19 +3174,19 @@
         <v>814615</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>769212</v>
+        <v>768689</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>859111</v>
+        <v>856949</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3923238948772348</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3704572195398246</v>
+        <v>0.3702056125647469</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4137531416309085</v>
+        <v>0.4127119835888096</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>641</v>
@@ -3195,19 +3195,19 @@
         <v>661912</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>620782</v>
+        <v>614853</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>705634</v>
+        <v>703598</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3332579578675351</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3125502240936204</v>
+        <v>0.3095648238142461</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3552710715097211</v>
+        <v>0.3542461404408117</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1397</v>
@@ -3216,19 +3216,19 @@
         <v>1476527</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1413330</v>
+        <v>1419944</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1537089</v>
+        <v>1545835</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3634466471393984</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.347890786049898</v>
+        <v>0.3495188335402213</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.378353980691399</v>
+        <v>0.3805069638663031</v>
       </c>
     </row>
     <row r="8">
@@ -3245,19 +3245,19 @@
         <v>1261770</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1217274</v>
+        <v>1219436</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1307173</v>
+        <v>1307696</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6076761051227652</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5862468583690909</v>
+        <v>0.5872880164111902</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6295427804601742</v>
+        <v>0.6297943874352531</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1265</v>
@@ -3266,19 +3266,19 @@
         <v>1324272</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1280550</v>
+        <v>1282586</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1365402</v>
+        <v>1371331</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6667420421324648</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.644728928490279</v>
+        <v>0.6457538595591882</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6874497759063795</v>
+        <v>0.6904351761857533</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2461</v>
@@ -3287,19 +3287,19 @@
         <v>2586041</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2525479</v>
+        <v>2516733</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2649238</v>
+        <v>2642624</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6365533528606016</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.621646019308601</v>
+        <v>0.6194930361336969</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.652109213950102</v>
+        <v>0.6504811664597787</v>
       </c>
     </row>
     <row r="9">
@@ -3391,19 +3391,19 @@
         <v>139294</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>117298</v>
+        <v>117423</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>159947</v>
+        <v>160863</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.255203793546819</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2149054609250168</v>
+        <v>0.2151330307409061</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2930428831037338</v>
+        <v>0.2947203751416046</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>118</v>
@@ -3412,19 +3412,19 @@
         <v>121996</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>101780</v>
+        <v>99742</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>143594</v>
+        <v>140729</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2225341331446458</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1856571458141608</v>
+        <v>0.1819408415783612</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2619313108900431</v>
+        <v>0.2567043476042792</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>242</v>
@@ -3433,19 +3433,19 @@
         <v>261290</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>233132</v>
+        <v>236084</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>288948</v>
+        <v>289500</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2388331529003069</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2130948371551287</v>
+        <v>0.2157936850971304</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2641141411263199</v>
+        <v>0.2646186823161529</v>
       </c>
     </row>
     <row r="11">
@@ -3462,19 +3462,19 @@
         <v>406520</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>385867</v>
+        <v>384951</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>428516</v>
+        <v>428391</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7447962064531809</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7069571168962665</v>
+        <v>0.7052796248583956</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7850945390749833</v>
+        <v>0.7848669692590939</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>407</v>
@@ -3483,19 +3483,19 @@
         <v>426217</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>404619</v>
+        <v>407484</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>446433</v>
+        <v>448471</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7774658668553542</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7380686891099569</v>
+        <v>0.7432956523957207</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.814342854185839</v>
+        <v>0.8180591584216386</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>783</v>
@@ -3504,19 +3504,19 @@
         <v>832737</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>805079</v>
+        <v>804527</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>860895</v>
+        <v>857943</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7611668470996931</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7358858588736802</v>
+        <v>0.7353813176838472</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7869051628448713</v>
+        <v>0.7842063149028697</v>
       </c>
     </row>
     <row r="12">
@@ -3608,19 +3608,19 @@
         <v>1179074</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1127864</v>
+        <v>1124630</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1234383</v>
+        <v>1235966</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3492849064422253</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3341145442297906</v>
+        <v>0.3331563523639821</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.365669306156764</v>
+        <v>0.366138161138386</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>891</v>
@@ -3629,19 +3629,19 @@
         <v>920123</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>869298</v>
+        <v>870252</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>972654</v>
+        <v>969001</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2609047519188052</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2464932685893428</v>
+        <v>0.2467635587259837</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.275800214180074</v>
+        <v>0.274764262800389</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1988</v>
@@ -3650,19 +3650,19 @@
         <v>2099197</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2029569</v>
+        <v>2025898</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2184592</v>
+        <v>2179574</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.304128222755295</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2940405372513535</v>
+        <v>0.293508750144461</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3165000190204387</v>
+        <v>0.3157730115930352</v>
       </c>
     </row>
     <row r="14">
@@ -3679,19 +3679,19 @@
         <v>2196607</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2141298</v>
+        <v>2139715</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2247817</v>
+        <v>2251051</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6507150935577747</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.634330693843236</v>
+        <v>0.6338618388616143</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6658854557702094</v>
+        <v>0.6668436476360179</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2430</v>
@@ -3700,19 +3700,19 @@
         <v>2606539</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2554008</v>
+        <v>2557661</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2657364</v>
+        <v>2656410</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7390952480811948</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7241997858199261</v>
+        <v>0.7252357371996108</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7535067314106572</v>
+        <v>0.7532364412740159</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4546</v>
@@ -3721,19 +3721,19 @@
         <v>4803146</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4717751</v>
+        <v>4722769</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4872774</v>
+        <v>4876445</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6958717772447049</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6834999809795613</v>
+        <v>0.6842269884069648</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7059594627486465</v>
+        <v>0.706491249855539</v>
       </c>
     </row>
     <row r="15">
